--- a/datos_y_modelos/db/brazil_domestic_govt_bonds/hp.xlsx
+++ b/datos_y_modelos/db/brazil_domestic_govt_bonds/hp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1170" documentId="11_F25DC773A252ABDACC10484F01DC4B1A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C608B7-90DC-4741-80AF-20E372C155BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values_only" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,12 +60,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
   <si>
     <t>id</t>
   </si>
@@ -216,6 +210,12 @@
   <si>
     <t>YN482390 Corp</t>
   </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,319 +297,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11915310556965718843</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13603163069209036686</stp>
-        <tr r="W5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13235089599330488134</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13502525288674494257</stp>
-        <tr r="P5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17633960442132066163</stp>
-        <tr r="AK5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11684677983934021470</stp>
-        <tr r="AJ5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16833774535875192878</stp>
-        <tr r="Q5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11825795176984845925</stp>
-        <tr r="X5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10790364382854141201</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11807591107444228270</stp>
-        <tr r="AY5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10689023639674573556</stp>
-        <tr r="T5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14157446868332659663</stp>
-        <tr r="V5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13659743736480043464</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13810735909353796495</stp>
-        <tr r="N5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15213223324115902088</stp>
-        <tr r="AE5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14155735849830419659</stp>
-        <tr r="AN5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12367160107946509242</stp>
-        <tr r="AD5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12071251541041278214</stp>
-        <tr r="L5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15385588504376983274</stp>
-        <tr r="AS5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16388749879344777728</stp>
-        <tr r="AB5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10999280612134821215</stp>
-        <tr r="R5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5851829642381582477</stp>
-        <tr r="AI5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3534320184644572099</stp>
-        <tr r="AA5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4915889440456895349</stp>
-        <tr r="AC5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2968963850922099193</stp>
-        <tr r="M5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6310770556943359920</stp>
-        <tr r="AM5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6030802657004520147</stp>
-        <tr r="Y5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3474913093419955529</stp>
-        <tr r="AR5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7780607239699333384</stp>
-        <tr r="J5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9937755019305874347</stp>
-        <tr r="AQ5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6638668440209411431</stp>
-        <tr r="AP5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5522583496181169309</stp>
-        <tr r="AV5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9602477167713644381</stp>
-        <tr r="U5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3152561435867598986</stp>
-        <tr r="AO5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6253103694007602273</stp>
-        <tr r="AL5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5702992226820944558</stp>
-        <tr r="O5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7404656449843639250</stp>
-        <tr r="S5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6666412409520936781</stp>
-        <tr r="AH5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4476153739254197755</stp>
-        <tr r="AZ5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2532631898049641186</stp>
-        <tr r="AW5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1513419201847887787</stp>
-        <tr r="AF5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7881303309233416082</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6004353638616682026</stp>
-        <tr r="AU5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7984171327362713691</stp>
-        <tr r="K5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4148226478152842299</stp>
-        <tr r="AG5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3762142850225398038</stp>
-        <tr r="AX5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5992184940333531129</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2414105159782174775</stp>
-        <tr r="AT5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BSRCH|1315285344582259535</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|149643799770559680</stp>
-        <tr r="Z5" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +568,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -929,159 +616,159 @@
     <col min="50" max="50" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:79">
       <c r="A2" s="1">
         <v>42062</v>
       </c>
@@ -1262,7 +949,7 @@
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79">
       <c r="A3" s="1">
         <v>42094</v>
       </c>
@@ -1443,7 +1130,7 @@
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79">
       <c r="A4" s="1">
         <v>42124</v>
       </c>
@@ -1624,7 +1311,7 @@
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79">
       <c r="A5" s="1">
         <v>42153</v>
       </c>
@@ -1805,7 +1492,7 @@
       <c r="BZ5" s="2"/>
       <c r="CA5" s="2"/>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79">
       <c r="A6" s="1">
         <v>42185</v>
       </c>
@@ -1986,7 +1673,7 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79">
       <c r="A7" s="1">
         <v>42216</v>
       </c>
@@ -2167,7 +1854,7 @@
       <c r="BZ7" s="2"/>
       <c r="CA7" s="2"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79">
       <c r="A8" s="1">
         <v>42247</v>
       </c>
@@ -2348,7 +2035,7 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79">
       <c r="A9" s="1">
         <v>42277</v>
       </c>
@@ -2529,7 +2216,7 @@
       <c r="BZ9" s="2"/>
       <c r="CA9" s="2"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79">
       <c r="A10" s="1">
         <v>42307</v>
       </c>
@@ -2710,7 +2397,7 @@
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79">
       <c r="A11" s="1">
         <v>42338</v>
       </c>
@@ -2891,7 +2578,7 @@
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79">
       <c r="A12" s="1">
         <v>42369</v>
       </c>
@@ -3072,7 +2759,7 @@
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79">
       <c r="A13" s="1">
         <v>42398</v>
       </c>
@@ -3253,7 +2940,7 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79">
       <c r="A14" s="1">
         <v>42429</v>
       </c>
@@ -3434,7 +3121,7 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79">
       <c r="A15" s="1">
         <v>42460</v>
       </c>
@@ -3615,7 +3302,7 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79">
       <c r="A16" s="1">
         <v>42489</v>
       </c>
@@ -3796,7 +3483,7 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79">
       <c r="A17" s="1">
         <v>42521</v>
       </c>
@@ -3977,7 +3664,7 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79">
       <c r="A18" s="1">
         <v>42551</v>
       </c>
@@ -4158,7 +3845,7 @@
       <c r="BZ18" s="2"/>
       <c r="CA18" s="2"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79">
       <c r="A19" s="1">
         <v>42580</v>
       </c>
@@ -4339,7 +4026,7 @@
       <c r="BZ19" s="2"/>
       <c r="CA19" s="2"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79">
       <c r="A20" s="1">
         <v>42613</v>
       </c>
@@ -4520,7 +4207,7 @@
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79">
       <c r="A21" s="1">
         <v>42643</v>
       </c>
@@ -4701,7 +4388,7 @@
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79">
       <c r="A22" s="1">
         <v>42674</v>
       </c>
@@ -4882,7 +4569,7 @@
       <c r="BZ22" s="2"/>
       <c r="CA22" s="2"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79">
       <c r="A23" s="1">
         <v>42704</v>
       </c>
@@ -5063,7 +4750,7 @@
       <c r="BZ23" s="2"/>
       <c r="CA23" s="2"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79">
       <c r="A24" s="1">
         <v>42734</v>
       </c>
@@ -5244,7 +4931,7 @@
       <c r="BZ24" s="2"/>
       <c r="CA24" s="2"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79">
       <c r="A25" s="1">
         <v>42766</v>
       </c>
@@ -5425,7 +5112,7 @@
       <c r="BZ25" s="2"/>
       <c r="CA25" s="2"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79">
       <c r="A26" s="1">
         <v>42794</v>
       </c>
@@ -5606,7 +5293,7 @@
       <c r="BZ26" s="2"/>
       <c r="CA26" s="2"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79">
       <c r="A27" s="1">
         <v>42825</v>
       </c>
@@ -5787,7 +5474,7 @@
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79">
       <c r="A28" s="1">
         <v>42853</v>
       </c>
@@ -5968,7 +5655,7 @@
       <c r="BZ28" s="2"/>
       <c r="CA28" s="2"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79">
       <c r="A29" s="1">
         <v>42886</v>
       </c>
@@ -6149,7 +5836,7 @@
       <c r="BZ29" s="2"/>
       <c r="CA29" s="2"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79">
       <c r="A30" s="1">
         <v>42916</v>
       </c>
@@ -6330,7 +6017,7 @@
       <c r="BZ30" s="2"/>
       <c r="CA30" s="2"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:79">
       <c r="A31" s="1">
         <v>42947</v>
       </c>
@@ -6511,7 +6198,7 @@
       <c r="BZ31" s="2"/>
       <c r="CA31" s="2"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:79">
       <c r="A32" s="1">
         <v>42978</v>
       </c>
@@ -6692,7 +6379,7 @@
       <c r="BZ32" s="2"/>
       <c r="CA32" s="2"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79">
       <c r="A33" s="1">
         <v>43007</v>
       </c>
@@ -6873,7 +6560,7 @@
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79">
       <c r="A34" s="1">
         <v>43039</v>
       </c>
@@ -7054,7 +6741,7 @@
       <c r="BZ34" s="2"/>
       <c r="CA34" s="2"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79">
       <c r="A35" s="1">
         <v>43069</v>
       </c>
@@ -7235,7 +6922,7 @@
       <c r="BZ35" s="2"/>
       <c r="CA35" s="2"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79">
       <c r="A36" s="1">
         <v>43098</v>
       </c>
@@ -7416,7 +7103,7 @@
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79">
       <c r="A37" s="1">
         <v>43131</v>
       </c>
@@ -7597,7 +7284,7 @@
       <c r="BZ37" s="2"/>
       <c r="CA37" s="2"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79">
       <c r="A38" s="1">
         <v>43159</v>
       </c>
@@ -7778,7 +7465,7 @@
       <c r="BZ38" s="2"/>
       <c r="CA38" s="2"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79">
       <c r="A39" s="1">
         <v>43189</v>
       </c>
@@ -7959,7 +7646,7 @@
       <c r="BZ39" s="2"/>
       <c r="CA39" s="2"/>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:79">
       <c r="A40" s="1">
         <v>43220</v>
       </c>
@@ -8140,7 +7827,7 @@
       <c r="BZ40" s="2"/>
       <c r="CA40" s="2"/>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:79">
       <c r="A41" s="1">
         <v>43251</v>
       </c>
@@ -8321,7 +8008,7 @@
       <c r="BZ41" s="2"/>
       <c r="CA41" s="2"/>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79">
       <c r="A42" s="1">
         <v>43280</v>
       </c>
@@ -8502,7 +8189,7 @@
       <c r="BZ42" s="2"/>
       <c r="CA42" s="2"/>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:79">
       <c r="A43" s="1">
         <v>43312</v>
       </c>
@@ -8683,7 +8370,7 @@
       <c r="BZ43" s="2"/>
       <c r="CA43" s="2"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:79">
       <c r="A44" s="1">
         <v>43343</v>
       </c>
@@ -8864,7 +8551,7 @@
       <c r="BZ44" s="2"/>
       <c r="CA44" s="2"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:79">
       <c r="A45" s="1">
         <v>43371</v>
       </c>
@@ -9045,7 +8732,7 @@
       <c r="BZ45" s="2"/>
       <c r="CA45" s="2"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:79">
       <c r="A46" s="1">
         <v>43404</v>
       </c>
@@ -9226,7 +8913,7 @@
       <c r="BZ46" s="2"/>
       <c r="CA46" s="2"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:79">
       <c r="A47" s="1">
         <v>43434</v>
       </c>
@@ -9407,7 +9094,7 @@
       <c r="BZ47" s="2"/>
       <c r="CA47" s="2"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:79">
       <c r="A48" s="1">
         <v>43465</v>
       </c>
@@ -9588,7 +9275,7 @@
       <c r="BZ48" s="2"/>
       <c r="CA48" s="2"/>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:79">
       <c r="A49" s="1">
         <v>43496</v>
       </c>
@@ -9769,7 +9456,7 @@
       <c r="BZ49" s="2"/>
       <c r="CA49" s="2"/>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:79">
       <c r="A50" s="1">
         <v>43524</v>
       </c>
@@ -9950,7 +9637,7 @@
       <c r="BZ50" s="2"/>
       <c r="CA50" s="2"/>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:79">
       <c r="A51" s="1">
         <v>43553</v>
       </c>
@@ -10131,7 +9818,7 @@
       <c r="BZ51" s="2"/>
       <c r="CA51" s="2"/>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:79">
       <c r="A52" s="1">
         <v>43585</v>
       </c>
@@ -10312,7 +9999,7 @@
       <c r="BZ52" s="2"/>
       <c r="CA52" s="2"/>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:79">
       <c r="A53" s="1">
         <v>43616</v>
       </c>
@@ -10493,7 +10180,7 @@
       <c r="BZ53" s="2"/>
       <c r="CA53" s="2"/>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:79">
       <c r="A54" s="1">
         <v>43644</v>
       </c>
@@ -10674,7 +10361,7 @@
       <c r="BZ54" s="2"/>
       <c r="CA54" s="2"/>
     </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:79">
       <c r="A55" s="1">
         <v>43677</v>
       </c>
@@ -10855,7 +10542,7 @@
       <c r="BZ55" s="2"/>
       <c r="CA55" s="2"/>
     </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:79">
       <c r="A56" s="1">
         <v>43707</v>
       </c>
@@ -11036,7 +10723,7 @@
       <c r="BZ56" s="2"/>
       <c r="CA56" s="2"/>
     </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:79">
       <c r="A57" s="1">
         <v>43738</v>
       </c>
@@ -11217,7 +10904,7 @@
       <c r="BZ57" s="2"/>
       <c r="CA57" s="2"/>
     </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:79">
       <c r="A58" s="1">
         <v>43769</v>
       </c>
@@ -11398,7 +11085,7 @@
       <c r="BZ58" s="2"/>
       <c r="CA58" s="2"/>
     </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:79">
       <c r="A59" s="1">
         <v>43798</v>
       </c>
@@ -11579,7 +11266,7 @@
       <c r="BZ59" s="2"/>
       <c r="CA59" s="2"/>
     </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:79">
       <c r="A60" s="1">
         <v>43830</v>
       </c>
@@ -11760,7 +11447,7 @@
       <c r="BZ60" s="2"/>
       <c r="CA60" s="2"/>
     </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:79">
       <c r="A61" s="1">
         <v>43861</v>
       </c>
@@ -11941,7 +11628,7 @@
       <c r="BZ61" s="2"/>
       <c r="CA61" s="2"/>
     </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:79">
       <c r="A62" s="1">
         <v>43889</v>
       </c>
@@ -12122,7 +11809,7 @@
       <c r="BZ62" s="2"/>
       <c r="CA62" s="2"/>
     </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:79">
       <c r="A63" s="1">
         <v>43921</v>
       </c>
@@ -12303,7 +11990,7 @@
       <c r="BZ63" s="2"/>
       <c r="CA63" s="2"/>
     </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:79">
       <c r="A64" s="1">
         <v>43951</v>
       </c>
@@ -12484,7 +12171,7 @@
       <c r="BZ64" s="2"/>
       <c r="CA64" s="2"/>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:79">
       <c r="A65" s="1">
         <v>43980</v>
       </c>
@@ -12665,7 +12352,7 @@
       <c r="BZ65" s="2"/>
       <c r="CA65" s="2"/>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:79">
       <c r="A66" s="1">
         <v>44012</v>
       </c>
@@ -12846,7 +12533,7 @@
       <c r="BZ66" s="2"/>
       <c r="CA66" s="2"/>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:79">
       <c r="A67" s="1">
         <v>44043</v>
       </c>
@@ -13027,7 +12714,7 @@
       <c r="BZ67" s="2"/>
       <c r="CA67" s="2"/>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:79">
       <c r="A68" s="1">
         <v>44074</v>
       </c>
@@ -13208,7 +12895,7 @@
       <c r="BZ68" s="2"/>
       <c r="CA68" s="2"/>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:79">
       <c r="A69" s="1">
         <v>44104</v>
       </c>
@@ -13389,7 +13076,7 @@
       <c r="BZ69" s="2"/>
       <c r="CA69" s="2"/>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:79">
       <c r="A70" s="1">
         <v>44134</v>
       </c>
@@ -13570,7 +13257,7 @@
       <c r="BZ70" s="2"/>
       <c r="CA70" s="2"/>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:79">
       <c r="A71" s="1">
         <v>44165</v>
       </c>
@@ -13751,7 +13438,7 @@
       <c r="BZ71" s="2"/>
       <c r="CA71" s="2"/>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:79">
       <c r="A72" s="1">
         <v>44196</v>
       </c>
@@ -13932,7 +13619,7 @@
       <c r="BZ72" s="2"/>
       <c r="CA72" s="2"/>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:79">
       <c r="A73" s="1">
         <v>44225</v>
       </c>
@@ -14113,7 +13800,7 @@
       <c r="BZ73" s="2"/>
       <c r="CA73" s="2"/>
     </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:79">
       <c r="A74" s="1">
         <v>44253</v>
       </c>
@@ -14294,7 +13981,7 @@
       <c r="BZ74" s="2"/>
       <c r="CA74" s="2"/>
     </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:79">
       <c r="A75" s="1">
         <v>44286</v>
       </c>
@@ -14475,7 +14162,7 @@
       <c r="BZ75" s="2"/>
       <c r="CA75" s="2"/>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:79">
       <c r="A76" s="1">
         <v>44316</v>
       </c>
@@ -14656,7 +14343,7 @@
       <c r="BZ76" s="2"/>
       <c r="CA76" s="2"/>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:79">
       <c r="A77" s="1">
         <v>44347</v>
       </c>
@@ -14837,7 +14524,7 @@
       <c r="BZ77" s="2"/>
       <c r="CA77" s="2"/>
     </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:79">
       <c r="A78" s="1">
         <v>44377</v>
       </c>
@@ -15018,7 +14705,7 @@
       <c r="BZ78" s="2"/>
       <c r="CA78" s="2"/>
     </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:79">
       <c r="A79" s="1">
         <v>44407</v>
       </c>
@@ -15199,7 +14886,7 @@
       <c r="BZ79" s="2"/>
       <c r="CA79" s="2"/>
     </row>
-    <row r="80" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:79">
       <c r="A80" s="1">
         <v>44439</v>
       </c>
@@ -15380,7 +15067,7 @@
       <c r="BZ80" s="2"/>
       <c r="CA80" s="2"/>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:79">
       <c r="A81" s="1">
         <v>44469</v>
       </c>
@@ -15561,7 +15248,7 @@
       <c r="BZ81" s="2"/>
       <c r="CA81" s="2"/>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:79">
       <c r="A82" s="1">
         <v>44498</v>
       </c>
@@ -15742,7 +15429,7 @@
       <c r="BZ82" s="2"/>
       <c r="CA82" s="2"/>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:79">
       <c r="A83" s="1">
         <v>44530</v>
       </c>
@@ -15923,7 +15610,7 @@
       <c r="BZ83" s="2"/>
       <c r="CA83" s="2"/>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:79">
       <c r="A84" s="1">
         <v>44561</v>
       </c>
@@ -16104,7 +15791,7 @@
       <c r="BZ84" s="2"/>
       <c r="CA84" s="2"/>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:79">
       <c r="A85" s="1">
         <v>44592</v>
       </c>
@@ -16285,7 +15972,7 @@
       <c r="BZ85" s="2"/>
       <c r="CA85" s="2"/>
     </row>
-    <row r="86" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:79">
       <c r="A86" s="1">
         <v>44620</v>
       </c>
@@ -16466,7 +16153,7 @@
       <c r="BZ86" s="2"/>
       <c r="CA86" s="2"/>
     </row>
-    <row r="87" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:79">
       <c r="A87" s="1">
         <v>44651</v>
       </c>
@@ -16647,7 +16334,7 @@
       <c r="BZ87" s="2"/>
       <c r="CA87" s="2"/>
     </row>
-    <row r="88" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:79">
       <c r="A88" s="1">
         <v>44680</v>
       </c>
@@ -16828,7 +16515,7 @@
       <c r="BZ88" s="2"/>
       <c r="CA88" s="2"/>
     </row>
-    <row r="89" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:79">
       <c r="A89" s="1">
         <v>44712</v>
       </c>
@@ -17009,7 +16696,7 @@
       <c r="BZ89" s="2"/>
       <c r="CA89" s="2"/>
     </row>
-    <row r="90" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:79">
       <c r="A90" s="1">
         <v>44742</v>
       </c>
@@ -17190,7 +16877,7 @@
       <c r="BZ90" s="2"/>
       <c r="CA90" s="2"/>
     </row>
-    <row r="91" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:79">
       <c r="A91" s="1">
         <v>44771</v>
       </c>
@@ -17371,7 +17058,7 @@
       <c r="BZ91" s="2"/>
       <c r="CA91" s="2"/>
     </row>
-    <row r="92" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:79">
       <c r="A92" s="1">
         <v>44804</v>
       </c>
@@ -17552,7 +17239,7 @@
       <c r="BZ92" s="2"/>
       <c r="CA92" s="2"/>
     </row>
-    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:79">
       <c r="A93" s="1">
         <v>44834</v>
       </c>
@@ -17733,7 +17420,7 @@
       <c r="BZ93" s="2"/>
       <c r="CA93" s="2"/>
     </row>
-    <row r="94" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:79">
       <c r="A94" s="1">
         <v>44865</v>
       </c>
@@ -17914,7 +17601,7 @@
       <c r="BZ94" s="2"/>
       <c r="CA94" s="2"/>
     </row>
-    <row r="95" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:79">
       <c r="A95" s="1">
         <v>44895</v>
       </c>
@@ -18095,7 +17782,7 @@
       <c r="BZ95" s="2"/>
       <c r="CA95" s="2"/>
     </row>
-    <row r="96" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:79">
       <c r="A96" s="1">
         <v>44925</v>
       </c>
@@ -18276,7 +17963,7 @@
       <c r="BZ96" s="2"/>
       <c r="CA96" s="2"/>
     </row>
-    <row r="97" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:79">
       <c r="A97" s="1">
         <v>44957</v>
       </c>
@@ -18457,7 +18144,7 @@
       <c r="BZ97" s="2"/>
       <c r="CA97" s="2"/>
     </row>
-    <row r="98" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:79">
       <c r="A98" s="1">
         <v>44985</v>
       </c>
@@ -18638,7 +18325,7 @@
       <c r="BZ98" s="2"/>
       <c r="CA98" s="2"/>
     </row>
-    <row r="99" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:79">
       <c r="A99" s="1">
         <v>45016</v>
       </c>
@@ -18819,7 +18506,7 @@
       <c r="BZ99" s="2"/>
       <c r="CA99" s="2"/>
     </row>
-    <row r="100" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:79">
       <c r="A100" s="1">
         <v>45044</v>
       </c>
@@ -19000,7 +18687,7 @@
       <c r="BZ100" s="2"/>
       <c r="CA100" s="2"/>
     </row>
-    <row r="101" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:79">
       <c r="A101" s="1">
         <v>45077</v>
       </c>
@@ -19181,7 +18868,7 @@
       <c r="BZ101" s="2"/>
       <c r="CA101" s="2"/>
     </row>
-    <row r="102" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:79">
       <c r="A102" s="1">
         <v>45107</v>
       </c>
@@ -19362,7 +19049,7 @@
       <c r="BZ102" s="2"/>
       <c r="CA102" s="2"/>
     </row>
-    <row r="103" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:79">
       <c r="A103" s="1">
         <v>45138</v>
       </c>
@@ -19543,7 +19230,7 @@
       <c r="BZ103" s="2"/>
       <c r="CA103" s="2"/>
     </row>
-    <row r="104" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:79">
       <c r="A104" s="1">
         <v>45169</v>
       </c>
@@ -19724,7 +19411,7 @@
       <c r="BZ104" s="2"/>
       <c r="CA104" s="2"/>
     </row>
-    <row r="105" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:79">
       <c r="A105" s="1">
         <v>45198</v>
       </c>
@@ -19905,7 +19592,7 @@
       <c r="BZ105" s="2"/>
       <c r="CA105" s="2"/>
     </row>
-    <row r="106" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:79">
       <c r="A106" s="1">
         <v>45230</v>
       </c>
@@ -20086,7 +19773,7 @@
       <c r="BZ106" s="2"/>
       <c r="CA106" s="2"/>
     </row>
-    <row r="107" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:79">
       <c r="A107" s="1">
         <v>45260</v>
       </c>
@@ -20267,7 +19954,7 @@
       <c r="BZ107" s="2"/>
       <c r="CA107" s="2"/>
     </row>
-    <row r="108" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:79">
       <c r="A108" s="1">
         <v>45289</v>
       </c>
@@ -20448,7 +20135,7 @@
       <c r="BZ108" s="2"/>
       <c r="CA108" s="2"/>
     </row>
-    <row r="109" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:79">
       <c r="A109" s="1">
         <v>45322</v>
       </c>
@@ -20629,7 +20316,7 @@
       <c r="BZ109" s="2"/>
       <c r="CA109" s="2"/>
     </row>
-    <row r="110" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:79">
       <c r="A110" s="1">
         <v>45351</v>
       </c>
@@ -20810,7 +20497,7 @@
       <c r="BZ110" s="2"/>
       <c r="CA110" s="2"/>
     </row>
-    <row r="111" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:79">
       <c r="A111" s="1">
         <v>45380</v>
       </c>
@@ -20991,7 +20678,7 @@
       <c r="BZ111" s="2"/>
       <c r="CA111" s="2"/>
     </row>
-    <row r="112" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:79">
       <c r="A112" s="1">
         <v>45412</v>
       </c>
@@ -21172,7 +20859,7 @@
       <c r="BZ112" s="2"/>
       <c r="CA112" s="2"/>
     </row>
-    <row r="113" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:79">
       <c r="A113" s="1">
         <v>45443</v>
       </c>
@@ -21353,7 +21040,7 @@
       <c r="BZ113" s="2"/>
       <c r="CA113" s="2"/>
     </row>
-    <row r="114" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:79">
       <c r="A114" s="1">
         <v>45471</v>
       </c>
@@ -21534,7 +21221,7 @@
       <c r="BZ114" s="2"/>
       <c r="CA114" s="2"/>
     </row>
-    <row r="115" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:79">
       <c r="A115" s="1">
         <v>45504</v>
       </c>
@@ -21715,7 +21402,7 @@
       <c r="BZ115" s="2"/>
       <c r="CA115" s="2"/>
     </row>
-    <row r="116" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:79">
       <c r="A116" s="1">
         <v>45534</v>
       </c>
@@ -21896,7 +21583,7 @@
       <c r="BZ116" s="2"/>
       <c r="CA116" s="2"/>
     </row>
-    <row r="117" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:79">
       <c r="A117" s="1">
         <v>45565</v>
       </c>
@@ -22077,7 +21764,7 @@
       <c r="BZ117" s="2"/>
       <c r="CA117" s="2"/>
     </row>
-    <row r="118" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:79">
       <c r="A118" s="1">
         <v>45596</v>
       </c>
@@ -22258,7 +21945,7 @@
       <c r="BZ118" s="2"/>
       <c r="CA118" s="2"/>
     </row>
-    <row r="119" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:79">
       <c r="A119" s="1">
         <v>45625</v>
       </c>
@@ -22439,7 +22126,7 @@
       <c r="BZ119" s="2"/>
       <c r="CA119" s="2"/>
     </row>
-    <row r="120" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:79">
       <c r="A120" s="1">
         <v>45657</v>
       </c>
@@ -22620,7 +22307,7 @@
       <c r="BZ120" s="2"/>
       <c r="CA120" s="2"/>
     </row>
-    <row r="121" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:79">
       <c r="A121" s="1">
         <v>45688</v>
       </c>
@@ -22801,7 +22488,7 @@
       <c r="BZ121" s="2"/>
       <c r="CA121" s="2"/>
     </row>
-    <row r="122" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:79">
       <c r="A122" s="1">
         <v>45716</v>
       </c>
@@ -22982,7 +22669,7 @@
       <c r="BZ122" s="2"/>
       <c r="CA122" s="2"/>
     </row>
-    <row r="123" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:79">
       <c r="A123" s="1">
         <v>45747</v>
       </c>
@@ -23163,7 +22850,7 @@
       <c r="BZ123" s="2"/>
       <c r="CA123" s="2"/>
     </row>
-    <row r="124" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:79">
       <c r="A124" s="1">
         <v>45777</v>
       </c>
@@ -23344,7 +23031,7 @@
       <c r="BZ124" s="2"/>
       <c r="CA124" s="2"/>
     </row>
-    <row r="125" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:79">
       <c r="A125" s="1">
         <v>45807</v>
       </c>
@@ -23525,7 +23212,7 @@
       <c r="BZ125" s="2"/>
       <c r="CA125" s="2"/>
     </row>
-    <row r="126" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:79">
       <c r="A126" s="1">
         <v>45838</v>
       </c>
@@ -23706,2337 +23393,2337 @@
       <c r="BZ126" s="2"/>
       <c r="CA126" s="2"/>
     </row>
-    <row r="127" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:79">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:79">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -26054,7 +25741,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -26104,177 +25791,177 @@
     <col min="52" max="52" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6">
         <v>42057</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="C4" s="3" t="str">
         <f>_xll.BSRCH("fi:bra_sovereign_local_bonds","dir=h","cols=50;rows=1")</f>
         <v>id</v>
       </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>21</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>31</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>44</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AV4" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AW4" t="s">
         <v>46</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AX4" t="s">
         <v>47</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY4" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>49</v>
       </c>
-      <c r="AY4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" cm="1">
@@ -26477,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -26631,7 +26318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -26785,7 +26472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -26939,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -27093,7 +26780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -27247,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1">
@@ -27401,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -27555,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -27709,7 +27396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -27863,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
@@ -28017,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -28171,7 +27858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
@@ -28325,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1">
@@ -28479,7 +28166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
@@ -28633,7 +28320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
@@ -28787,7 +28474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
@@ -28941,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
@@ -29095,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
@@ -29249,7 +28936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
@@ -29403,7 +29090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1">
@@ -29557,7 +29244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
@@ -29711,7 +29398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
@@ -29865,7 +29552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
@@ -30019,7 +29706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
@@ -30173,7 +29860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
@@ -30327,7 +30014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
@@ -30481,7 +30168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1">
@@ -30635,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
@@ -30789,7 +30476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
@@ -30943,7 +30630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1">
@@ -31097,7 +30784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
@@ -31251,7 +30938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1">
@@ -31405,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
@@ -31559,7 +31246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1">
@@ -31713,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1">
@@ -31867,7 +31554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1">
@@ -32021,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1">
@@ -32175,7 +31862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1">
@@ -32329,7 +32016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1">
@@ -32483,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1">
@@ -32637,7 +32324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1">
@@ -32791,7 +32478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
@@ -32945,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1">
@@ -33099,7 +32786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1">
@@ -33253,7 +32940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1">
@@ -33407,7 +33094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1">
@@ -33561,7 +33248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1">
@@ -33715,7 +33402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1">
@@ -33869,7 +33556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1">
@@ -34023,7 +33710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1">
@@ -34177,7 +33864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
@@ -34331,7 +34018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1">
@@ -34485,7 +34172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1">
@@ -34639,7 +34326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
@@ -34793,7 +34480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1">
@@ -34947,7 +34634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1">
@@ -35101,7 +34788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
@@ -35255,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
@@ -35409,7 +35096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1">
@@ -35563,7 +35250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1">
@@ -35717,7 +35404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1">
@@ -35871,7 +35558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1">
@@ -36025,7 +35712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
@@ -36179,7 +35866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1">
@@ -36333,7 +36020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1">
@@ -36487,7 +36174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
@@ -36641,7 +36328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
@@ -36795,7 +36482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
@@ -36949,7 +36636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1">
@@ -37103,7 +36790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1">
@@ -37257,7 +36944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1">
@@ -37411,7 +37098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1">
@@ -37565,7 +37252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1">
@@ -37719,7 +37406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1">
@@ -37873,7 +37560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1">
@@ -38027,7 +37714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1">
@@ -38181,7 +37868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1">
@@ -38335,7 +38022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1">
@@ -38489,7 +38176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1">
@@ -38643,7 +38330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1">
@@ -38797,7 +38484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:52">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1">
@@ -38951,7 +38638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:52">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1">
@@ -39105,7 +38792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:52">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1">
@@ -39259,7 +38946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1">
@@ -39413,7 +39100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1">
@@ -39567,7 +39254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:52">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1">
@@ -39721,7 +39408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1">
@@ -39875,7 +39562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1">
@@ -40029,7 +39716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1">
@@ -40183,7 +39870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1">
@@ -40337,7 +40024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1">
@@ -40491,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1">
@@ -40645,7 +40332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1">
@@ -40799,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1">
@@ -40953,7 +40640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1">
@@ -41107,7 +40794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1">
@@ -41261,7 +40948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1">
@@ -41415,7 +41102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1">
@@ -41569,7 +41256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:52">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1">
@@ -41723,7 +41410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1">
@@ -41877,7 +41564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:52">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1">
@@ -42031,7 +41718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:52">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1">
@@ -42185,7 +41872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:52">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1">
@@ -42339,7 +42026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1">
@@ -42493,7 +42180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1">
@@ -42647,7 +42334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1">
@@ -42801,7 +42488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1">
@@ -42955,7 +42642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:52">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1">
@@ -43109,7 +42796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:52">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1">
@@ -43263,7 +42950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:52">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1">
@@ -43417,7 +43104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:52">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1">
@@ -43571,7 +43258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:52">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1">
@@ -43725,7 +43412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:52">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1">
@@ -43879,7 +43566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:52">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1">
@@ -44033,7 +43720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:52">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1">
@@ -44187,7 +43874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1">
@@ -44341,7 +44028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:52">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1">
@@ -44495,7 +44182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:52">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1">
@@ -44649,7 +44336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:52">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1">
@@ -44803,7 +44490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:52">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1">
@@ -44957,7 +44644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:52">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1">
@@ -45111,7 +44798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:52">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1">
@@ -45265,7 +44952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1">
@@ -45419,7 +45106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:52">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1">
@@ -45573,3269 +45260,3269 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:52">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:52">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:52">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:52">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:52">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:52">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:52">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:52">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:52">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:52">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:52">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:52">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:52">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:52">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:52">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
